--- a/Betting_Simulation/grouped_r_metrics.xlsx
+++ b/Betting_Simulation/grouped_r_metrics.xlsx
@@ -474,19 +474,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>4.030000000000001</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>39.03</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="F2" t="n">
-        <v>23.9</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="3">
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>-27</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
-        <v>-33</v>
+        <v>-122</v>
       </c>
       <c r="F3" t="n">
-        <v>21.4</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="4">
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-21</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -540,18 +540,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -651,19 +653,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>12.03</v>
+        <v>-14.5</v>
       </c>
       <c r="D2" t="n">
-        <v>31.03</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
         <v>-19</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -673,19 +675,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-23</v>
+        <v>-37</v>
       </c>
       <c r="F3" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="4">
@@ -695,19 +697,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>-17.5</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-29</v>
+        <v>-57</v>
       </c>
       <c r="F4" t="n">
-        <v>21.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
@@ -717,18 +719,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>-47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -884,23 +888,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CATTERICK</t>
+          <t>NEWBURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C2" t="n">
-        <v>24.03</v>
+        <v>-20</v>
       </c>
       <c r="D2" t="n">
-        <v>95.03</v>
+        <v>140</v>
       </c>
       <c r="E2" t="n">
-        <v>-71</v>
+        <v>-160</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>12.1</v>
       </c>
     </row>
   </sheetData>
